--- a/Autorizados.xlsx
+++ b/Autorizados.xlsx
@@ -543,7 +543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -840,6 +840,23 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>12:50:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
